--- a/outputs/per_model_excel/Qwen-Instruct_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Qwen-Instruct_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -501,12 +516,21 @@
         <v>-23.6</v>
       </c>
       <c r="F2" t="n">
+        <v>24.55</v>
+      </c>
+      <c r="G2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-21.27</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.5712</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.6241</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>9.26</v>
       </c>
     </row>
@@ -529,12 +553,21 @@
         <v>-15.53</v>
       </c>
       <c r="F3" t="n">
+        <v>19.58</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-13.27</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.58</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.618</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>6.56</v>
       </c>
     </row>
@@ -557,12 +590,21 @@
         <v>-16.89</v>
       </c>
       <c r="F4" t="n">
+        <v>20.89</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-14.33</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.541</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.5952</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>10.02</v>
       </c>
     </row>
@@ -585,12 +627,21 @@
         <v>0.04</v>
       </c>
       <c r="F5" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="G5" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.717</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.7174</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -613,12 +664,21 @@
         <v>-20.86</v>
       </c>
       <c r="F6" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-17.89</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.6202</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.6504</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>4.87</v>
       </c>
     </row>
@@ -641,12 +701,21 @@
         <v>-17.67</v>
       </c>
       <c r="F7" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-15.19</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.6116</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.6354</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>3.9</v>
       </c>
     </row>
@@ -669,12 +738,21 @@
         <v>-99.83</v>
       </c>
       <c r="F8" t="n">
+        <v>16344.77</v>
+      </c>
+      <c r="G8" t="n">
+        <v>70.29000000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-99.56999999999999</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.3742</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.5656</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>51.15</v>
       </c>
     </row>
@@ -697,12 +775,21 @@
         <v>-89.87</v>
       </c>
       <c r="F9" t="n">
+        <v>259.53</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-92.34999999999999</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5208</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.6153999999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>18.17</v>
       </c>
     </row>
